--- a/output/동부대로_W_여름_배출량/동부대로_W_여름_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_W_여름_배출량/동부대로_W_여름_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1204 +397,1228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>7.679307072219614</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.7987429133779722</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1.494639055342114</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>1.136734972470182</v>
+      </c>
+      <c r="F2">
         <v>0.6228891532334075</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>2.49859485912528</v>
       </c>
-      <c r="G2" t="n">
-        <v>13.09417305329839</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="H2">
+        <v>14.23090802576857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>5.821410199908421</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.241958583013171</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>0.7578233149801213</v>
+      </c>
+      <c r="F3">
         <v>1.453408024211284</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>2.915027335646159</v>
       </c>
-      <c r="G3" t="n">
-        <v>12.77412253422674</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="H3">
+        <v>13.53194584920686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>7.101294711945022</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.2282122609651349</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.494639055342114</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4">
         <v>1.453408024211284</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>11.11041900550531</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>8.174746238169266</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.4564245219302699</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.120979291506586</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>0.7578233149801213</v>
+      </c>
+      <c r="F5">
         <v>1.34959316533905</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G5" t="n">
-        <v>12.13830902806389</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>12.89613234304401</v>
+      </c>
+      <c r="I5">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7.514160683569727</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.6156183468487</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>0.3789116574900607</v>
+      </c>
+      <c r="F6">
         <v>2.076297177444692</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>2.49859485912528</v>
       </c>
-      <c r="G6" t="n">
-        <v>15.0469894584361</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="H6">
+        <v>15.42590111592616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8.009599849519388</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.2282122609651349</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.362937874519756</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>2.273469944940365</v>
+      </c>
+      <c r="F7">
         <v>1.661037741955753</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>3.33145981216704</v>
       </c>
-      <c r="G7" t="n">
-        <v>16.59324753912707</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="H7">
+        <v>18.86671748406744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8.463752418306564</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.026955174343107</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2.241958583013171</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>0.3789116574900607</v>
+      </c>
+      <c r="F8">
         <v>1.14196344759458</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>3.33145981216704</v>
       </c>
-      <c r="G8" t="n">
-        <v>16.20608943542446</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="H8">
+        <v>16.58500109291452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>9.206911167231045</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.4564245219302699</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5.231236693697399</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>3.031293259920485</v>
+      </c>
+      <c r="F9">
         <v>1.972482318572458</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>1.66572990608352</v>
       </c>
-      <c r="G9" t="n">
-        <v>18.53278460751469</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="H9">
+        <v>21.56407786743518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>12.46855234306626</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4.110257402190814</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>1.515646629960243</v>
+      </c>
+      <c r="F10">
         <v>2.28392689518916</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>0.4164324765208801</v>
       </c>
-      <c r="G10" t="n">
-        <v>19.62148750841482</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="H10">
+        <v>21.13713413837506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>15.48247393592664</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.1141061304825675</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>3.736597638355285</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>0.3789116574900607</v>
+      </c>
+      <c r="F11">
         <v>2.076297177444692</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.4164324765208801</v>
       </c>
-      <c r="G11" t="n">
-        <v>21.82590735873007</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="H11">
+        <v>22.20481901622013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11.06480803954224</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.5705306524128374</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.494639055342114</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>1.136734972470182</v>
+      </c>
+      <c r="F12">
         <v>0.8305188709778767</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.4164324765208801</v>
       </c>
-      <c r="G12" t="n">
-        <v>14.37692909479595</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="H12">
+        <v>15.51366406726613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>10.07392970764294</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.4564245219302699</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2.989278110684228</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13">
         <v>1.038148588722346</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>15.39064588202154</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5.945269991395833</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>1.136734972470182</v>
+      </c>
+      <c r="F14">
         <v>0.4152594354889383</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.24929742956264</v>
       </c>
-      <c r="G14" t="n">
-        <v>7.952145247895113</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="H14">
+        <v>9.088880220365295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>4.500239090709346</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.5705306524128374</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.494639055342114</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>0.3789116574900607</v>
+      </c>
+      <c r="G15">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G15" t="n">
-        <v>7.398273751506058</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="H15">
+        <v>7.777185408996119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2.766202009885559</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.7987429133779722</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.3736597638355285</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.3789116574900607</v>
+      </c>
+      <c r="F16">
         <v>0.3114445766167038</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.4164324765208801</v>
       </c>
-      <c r="G16" t="n">
-        <v>4.666481740236644</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="H16">
+        <v>5.045393397726705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1.486317497848958</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.4564245219302699</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>1.942742019779228</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.9083051375743635</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.5705306524128374</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.3736597638355285</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.1038148588722346</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>1.956310412694964</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1.073451526224247</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.2282122609651349</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>0.3114445766167038</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>2.445973316847846</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.6192989574370655</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.2282122609651349</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="F20">
         <v>0.1038148588722346</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.4164324765208801</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>1.367758553795315</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.403744303524016</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1141061304825675</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.120979291506586</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21">
         <v>0.2076297177444692</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>3.679324396299398</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.848775204210502</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.1141061304825675</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.747319527671057</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>2.652381602430425</v>
+      </c>
+      <c r="F22">
         <v>0.8305188709778767</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>2.915027335646159</v>
       </c>
-      <c r="G22" t="n">
-        <v>7.863148785142084</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>10.51553038757251</v>
+      </c>
+      <c r="I22">
         <v>0.4074017161539208</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>7.844453460869506</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.5705306524128374</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1.868298819177642</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>1.894558287450304</v>
+      </c>
+      <c r="F23">
         <v>1.557222883083518</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>2.0821623826044</v>
       </c>
-      <c r="G23" t="n">
-        <v>13.92266819814791</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="H23">
+        <v>15.81722648559821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>12.17954616292896</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.5705306524128374</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>5.231236693697399</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>1.136734972470182</v>
+      </c>
+      <c r="F24">
         <v>1.453408024211284</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>2.0821623826044</v>
       </c>
-      <c r="G24" t="n">
-        <v>21.51688391585488</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="H24">
+        <v>22.65361888832506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>16.34949247633853</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.6846367828954049</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>4.85757692986187</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>2.273469944940365</v>
+      </c>
+      <c r="F25">
         <v>1.453408024211284</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>1.66572990608352</v>
       </c>
-      <c r="G25" t="n">
-        <v>25.21454497746758</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>27.48801492240794</v>
+      </c>
+      <c r="I25">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>9.165624570068575</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.9128490438605398</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2.241958583013171</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>1.515646629960243</v>
+      </c>
+      <c r="F26">
         <v>0.8305188709778767</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>3.33145981216704</v>
       </c>
-      <c r="G26" t="n">
-        <v>16.68611173816416</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>18.20175836812441</v>
+      </c>
+      <c r="I26">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>6.977434920457606</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.4564245219302699</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.989278110684228</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.136734972470182</v>
+      </c>
+      <c r="F27">
         <v>1.868667459700222</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>3.74789228868792</v>
       </c>
-      <c r="G27" t="n">
-        <v>16.2433981595372</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>17.38013313200739</v>
+      </c>
+      <c r="I27">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>7.803166863707029</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1.868298819177642</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28">
         <v>1.764852600827988</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>1.24929742956264</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>13.23163496279996</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>9.53720394453082</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.2282122609651349</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2.989278110684228</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>0.3789116574900607</v>
+      </c>
+      <c r="F29">
         <v>1.764852600827988</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>1.66572990608352</v>
       </c>
-      <c r="G29" t="n">
-        <v>16.18527682309169</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="H29">
+        <v>16.56418848058175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>7.968313252356914</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>1.120979291506586</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>1.136734972470182</v>
+      </c>
+      <c r="F30">
         <v>1.661037741955753</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G30" t="n">
-        <v>12.33291534646264</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>13.46965031893282</v>
+      </c>
+      <c r="I30">
         <v>0.4074017161539208</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>7.349014294919848</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1141061304825675</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2.241958583013171</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>0.7578233149801213</v>
+      </c>
+      <c r="F31">
         <v>1.661037741955753</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>11.36611675037134</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="H31">
+        <v>12.12394006535146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>10.11521630480541</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.9128490438605398</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2.241958583013171</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32">
         <v>1.453408024211284</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>1.66572990608352</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>16.59286272005088</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>9.908783318993049</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.6846367828954049</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>4.110257402190814</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>2.273469944940365</v>
+      </c>
+      <c r="F33">
         <v>2.076297177444692</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>0.4164324765208801</v>
       </c>
-      <c r="G33" t="n">
-        <v>17.19640715804484</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="H33">
+        <v>19.4698771029852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>12.88141831469098</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.4564245219302699</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>6.725875749039512</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>2.273469944940365</v>
+      </c>
+      <c r="F34">
         <v>1.661037741955753</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
-        <v>22.13215804377043</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>24.4056279887108</v>
+      </c>
+      <c r="I34">
         <v>0.4074017161539208</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>18.16610275148726</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>3.736597638355285</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>0.7578233149801213</v>
+      </c>
+      <c r="F35">
         <v>1.34959316533905</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G35" t="n">
-        <v>24.28885936630032</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>25.04668268128044</v>
+      </c>
+      <c r="I35">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>10.81708845656742</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.5705306524128374</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>5.231236693697399</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>0.3789116574900607</v>
+      </c>
+      <c r="F36">
         <v>1.557222883083518</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>1.66572990608352</v>
       </c>
-      <c r="G36" t="n">
-        <v>20.04550944992166</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>20.42442110741172</v>
+      </c>
+      <c r="I36">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>7.720593669382086</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.9128490438605398</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2.6156183468487</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>0.3789116574900607</v>
+      </c>
+      <c r="F37">
         <v>0.7267040121056421</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>1.24929742956264</v>
       </c>
-      <c r="G37" t="n">
-        <v>13.22506250175961</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="H37">
+        <v>13.60397415924967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>7.514160683569727</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.5705306524128374</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.747319527671057</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.136734972470182</v>
+      </c>
+      <c r="F38">
         <v>0.7267040121056421</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G38" t="n">
-        <v>10.39157982880102</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="H38">
+        <v>11.52831480127121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>4.706672076521703</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.141061304825675</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1.868298819177642</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39">
         <v>0.2076297177444692</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>1.24929742956264</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>9.37666020590909</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2.642342218398147</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2282122609651349</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="F40">
         <v>0.2076297177444692</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.4164324765208801</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>3.494616673628631</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1.857896872311197</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.3114445766167038</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>2.511659840375604</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.8670185404118919</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.4564245219302699</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.3736597638355285</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>1.24929742956264</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>2.94640025574033</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.6605855545995367</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>0.5190742943611729</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.4164324765208801</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>1.59609232548159</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.4954391659496528</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.3736597638355285</v>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.8328649530417601</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>1.701963882826941</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.692750483661313</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1141061304825675</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.3736597638355285</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45">
         <v>0.9343337298501111</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>1.24929742956264</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>4.36414753739216</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2.683628815560618</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.747319527671057</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>1.515646629960243</v>
+      </c>
+      <c r="F46">
         <v>0.9343337298501111</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>1.66572990608352</v>
       </c>
-      <c r="G46" t="n">
-        <v>6.373330370613008</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="H46">
+        <v>7.88897700057325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>8.835331792768807</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3423183914477024</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>3.736597638355285</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>3.410204917410546</v>
+      </c>
+      <c r="F47">
         <v>1.34959316533905</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>4.1643247652088</v>
       </c>
-      <c r="G47" t="n">
-        <v>18.6318666111966</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>22.04207152860715</v>
+      </c>
+      <c r="I47">
         <v>0.2037008580769604</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>12.88141831469098</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.2282122609651349</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>5.231236693697399</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>2.273469944940365</v>
+      </c>
+      <c r="F48">
         <v>1.34959316533905</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>2.49859485912528</v>
       </c>
-      <c r="G48" t="n">
-        <v>22.18905529381785</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="H48">
+        <v>24.46252523875821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>13.95486984091521</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.7987429133779722</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>4.110257402190814</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>2.652381602430425</v>
+      </c>
+      <c r="F49">
         <v>1.661037741955753</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>3.33145981216704</v>
       </c>
-      <c r="G49" t="n">
-        <v>24.67117114291463</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>27.32355274534505</v>
+      </c>
+      <c r="I49">
         <v>0.8148034323078417</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>